--- a/plots/countries/plot data/New Zealand.xlsx
+++ b/plots/countries/plot data/New Zealand.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>37.121530099842</v>
+        <v>36.9151030131229</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>1.54939174926866</v>
+        <v>1.56230652603404</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>4.75579968868937</v>
+        <v>4.75595402948744</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>5.98658856435697</v>
+        <v>5.97410956435672</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>8.12263808023179</v>
+        <v>8.12348478373533</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>3.47822755661281</v>
+        <v>3.48308013904211</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-24.3246239848633</v>
+        <v>-24.3340575522452</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.36011437404246</v>
+        <v>3.28096315102397</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>37.3467820374135</v>
+        <v>37.2447721170177</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>1.61184814870924</v>
+        <v>1.6396030078342</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>5.23996815142954</v>
+        <v>5.24037096221915</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>6.09667292331626</v>
+        <v>6.08387392331665</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>8.09983940192893</v>
+        <v>8.10319499064622</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>3.63280897764613</v>
+        <v>3.63651998768018</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-26.214126625779</v>
+        <v>-26.1979745656513</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>4.48079556866008</v>
+        <v>3.37206002549594</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>36.9487337210858</v>
+        <v>36.8076793705591</v>
       </c>
     </row>
     <row r="21">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>1.56351772142959</v>
+        <v>1.58224885069612</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>5.09650228319765</v>
+        <v>5.09721584829616</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>7.58785434518761</v>
+        <v>7.56581034518751</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>8.46306777592525</v>
+        <v>8.46540433845413</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>3.32277011074817</v>
+        <v>3.33432178479797</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-25.4599319884068</v>
+        <v>-25.4867703575734</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>4.59407087374445</v>
+        <v>3.45750389353412</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>37.2948601487673</v>
+        <v>37.053732763263</v>
       </c>
     </row>
     <row r="30">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>1.61579929879399</v>
+        <v>1.64293090066114</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>5.36796864336585</v>
+        <v>5.36849038362954</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>6.64750696379154</v>
+        <v>6.62372796379131</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>8.91400695129645</v>
+        <v>8.91714940312047</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>3.18867984477657</v>
+        <v>3.20086773756822</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-25.8596607337752</v>
+        <v>-25.8985214934909</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4.71135182111543</v>
+        <v>3.54571014241616</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>38.6077705043753</v>
+        <v>38.6376471912685</v>
       </c>
     </row>
     <row r="39">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>1.70984059570575</v>
+        <v>1.74203707190191</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>5.68709432030551</v>
+        <v>5.68769316702304</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>5.51948846755428</v>
+        <v>5.49376446755465</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>9.57472943503329</v>
+        <v>9.57711207606697</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>3.06620008030046</v>
+        <v>3.07968439327756</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-25.1587621255282</v>
+        <v>-25.2092610365136</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>4.58486265644439</v>
+        <v>3.49980481966626</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>39.235021311295</v>
+        <v>39.298055705826</v>
       </c>
     </row>
     <row r="48">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>1.48579832240236</v>
+        <v>1.4935107831126</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>5.78149197739846</v>
+        <v>5.78216168514121</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>4.78232064189171</v>
+        <v>4.75535164189137</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>10.2389613621546</v>
+        <v>10.239761784832</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>3.16618597259687</v>
+        <v>3.18151054332601</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-23.7300468412507</v>
+        <v>-23.7931856070326</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>4.68849289141626</v>
+        <v>3.57719586014629</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>39.9072627658791</v>
+        <v>39.9866413382618</v>
       </c>
     </row>
     <row r="57">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>1.92676173816296</v>
+        <v>1.93483981235948</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>6.13142808523108</v>
+        <v>6.1322884138318</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>5.53210343301208</v>
+        <v>5.50122043301204</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>10.3685422833224</v>
+        <v>10.3702394985927</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>3.3311876567387</v>
+        <v>3.34781038146017</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-22.9561575747903</v>
+        <v>-23.0321652428769</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>4.78586263646991</v>
+        <v>3.64459156839449</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>40.5420057230646</v>
+        <v>40.6227509889164</v>
       </c>
     </row>
     <row r="66">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>1.95248683935508</v>
+        <v>1.95682590107032</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>6.21238312826441</v>
+        <v>6.21321039451442</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>7.13641376397675</v>
+        <v>7.10094276397633</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>10.5940784179626</v>
+        <v>10.5959137612205</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>3.25358819669338</v>
+        <v>3.27448816939201</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-23.6101163898675</v>
+        <v>-23.6803935398087</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>4.85398319481974</v>
+        <v>3.71550666682739</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>39.9457348225253</v>
+        <v>39.8840845980935</v>
       </c>
     </row>
     <row r="75">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>1.93084198124127</v>
+        <v>1.93887329434945</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>5.94604492147378</v>
+        <v>5.94698510696781</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>5.52238300086836</v>
+        <v>5.49004900086804</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>10.7989383716869</v>
+        <v>10.8002896493523</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>3.24461215787321</v>
+        <v>3.26019110224591</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-24.2075064793314</v>
+        <v>-24.2811776907023</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>4.84875349756873</v>
+        <v>3.75062583561372</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>39.9332297980702</v>
+        <v>39.8247393132963</v>
       </c>
     </row>
     <row r="84">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>1.82003589701419</v>
+        <v>1.83185488896133</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>5.8084796447878</v>
+        <v>5.80934617475015</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>6.75432964010573</v>
+        <v>6.72321264010541</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>11.084797396965</v>
+        <v>11.0852500122004</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>3.43082737912877</v>
+        <v>3.44372588348124</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-26.6675798075015</v>
+        <v>-26.7471850089528</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>4.87701757130782</v>
+        <v>3.78194011816141</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>41.181520054018</v>
+        <v>41.1753622792707</v>
       </c>
     </row>
     <row r="93">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>1.73057841247541</v>
+        <v>1.73356082572723</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>6.33215513764071</v>
+        <v>6.33305514620711</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>6.39451277088639</v>
+        <v>6.36515914388618</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>11.635135832075</v>
+        <v>11.6351892029731</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>3.46754362501744</v>
+        <v>3.47332533999994</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-27.3538542272092</v>
+        <v>-27.4430184726362</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>4.90853016284639</v>
+        <v>3.80584015700867</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>41.9512751225665</v>
+        <v>41.8470159966733</v>
       </c>
     </row>
     <row r="102">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>1.78863132677245</v>
+        <v>1.79209101035796</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>6.71093486143919</v>
+        <v>6.71196459186519</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>7.88356353788973</v>
+        <v>7.85250034789023</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>11.6926764543036</v>
+        <v>11.6927364044238</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>3.57206266894701</v>
+        <v>3.57305779042892</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-27.6194143376247</v>
+        <v>-27.7075629100294</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>4.93336451866841</v>
+        <v>3.81892145044213</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>41.8445835102234</v>
+        <v>41.8466291853421</v>
       </c>
     </row>
     <row r="111">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>1.6476600346824</v>
+        <v>1.65138901662957</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>6.974907452724</v>
+        <v>6.97609746238392</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>7.10027909367792</v>
+        <v>7.06509314367783</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>12.1479982524964</v>
+        <v>12.1480796632395</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>3.64793052729431</v>
+        <v>3.65684833663595</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-26.0630637744752</v>
+        <v>-26.158991952094</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>4.9504709907312</v>
+        <v>3.83400450616778</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>42.6123832966542</v>
+        <v>42.6575632862634</v>
       </c>
     </row>
     <row r="120">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>1.52496022769745</v>
+        <v>1.52845387635714</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>6.4223608825746</v>
+        <v>6.42366474502318</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>8.42702386367066</v>
+        <v>8.39046566367062</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>12.6824411593232</v>
+        <v>12.6825596729914</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>3.83921515101834</v>
+        <v>3.84057384342292</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-26.8142529312669</v>
+        <v>-26.9255502138085</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>4.84492962612043</v>
+        <v>3.76248121016452</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>42.9139944938578</v>
+        <v>42.9621075456487</v>
       </c>
     </row>
     <row r="129">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>1.81060734329603</v>
+        <v>1.81449638073692</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>5.89609190429143</v>
+        <v>5.89733364741419</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>8.03716543233136</v>
+        <v>8.00113462097102</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>12.9758991013816</v>
+        <v>12.9759771363902</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>3.89639484939735</v>
+        <v>3.90144869297765</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-26.5938167986676</v>
+        <v>-26.6990276341073</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>4.86481452209815</v>
+        <v>3.7901298506688</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>43.125879216887</v>
+        <v>43.1616903018286</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>2.00494155384866</v>
+        <v>2.00757274021843</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>5.08346427533643</v>
+        <v>5.0847013652688</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>10.0845814712003</v>
+        <v>10.0480581655804</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>13.0468352910759</v>
+        <v>13.0468857120568</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>4.00781200977518</v>
+        <v>4.02018632303428</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-24.2509347365961</v>
+        <v>-24.3625298561645</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>4.8524729183151</v>
+        <v>3.76648738458253</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>42.930881650014</v>
+        <v>42.8788717672776</v>
       </c>
     </row>
     <row r="147">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>2.41707465499761</v>
+        <v>2.42007991284236</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>5.13490947512871</v>
+        <v>5.13583760377435</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>9.96850158414195</v>
+        <v>9.93137255577392</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>13.1657243055998</v>
+        <v>13.1657678014598</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>4.11004507543803</v>
+        <v>4.12214061640271</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-22.1448413706021</v>
+        <v>-22.2484476185406</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>4.63080867269533</v>
+        <v>3.71688879612633</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>41.7394299344761</v>
+        <v>41.7796343310043</v>
       </c>
     </row>
     <row r="156">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>2.22379140629731</v>
+        <v>2.22662156318729</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>5.57552188126229</v>
+        <v>5.57645336626844</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>8.31188019816892</v>
+        <v>8.27050696027712</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>13.2687346289518</v>
+        <v>13.2687664562546</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>4.33045569276769</v>
+        <v>4.34626633177952</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-20.0454642530715</v>
+        <v>-20.1447295685091</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>4.59025348037542</v>
+        <v>3.68327057066313</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>40.8451372368332</v>
+        <v>40.8967019852358</v>
       </c>
     </row>
     <row r="165">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>2.19367838079834</v>
+        <v>2.19512262464146</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>5.56387348758696</v>
+        <v>5.56474340989053</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>9.58835920315738</v>
+        <v>9.54541050608668</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>13.2785578639186</v>
+        <v>13.2785692497717</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>4.21389587148347</v>
+        <v>4.23627110596016</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-28.7914888145799</v>
+        <v>-28.8324128656516</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>4.49598926587809</v>
+        <v>3.62996053003409</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>40.8142786424883</v>
+        <v>40.8514023354077</v>
       </c>
     </row>
     <row r="174">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>2.47743438123344</v>
+        <v>2.47824160765457</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>5.25012360612152</v>
+        <v>5.25077575423019</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>7.35855866736316</v>
+        <v>7.31535668316571</v>
       </c>
     </row>
     <row r="178">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>4.17742936522414</v>
+        <v>4.19774345959046</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-27.6348345496374</v>
+        <v>-27.6868234561272</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>4.34930161816168</v>
+        <v>3.56596858148658</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>41.0454768879464</v>
+        <v>41.0553038898808</v>
       </c>
     </row>
     <row r="183">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>2.92041465167588</v>
+        <v>2.92502888945364</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>5.50988594743386</v>
+        <v>5.51028840097428</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>6.7040701472425</v>
+        <v>6.66073574660667</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>13.3347731365537</v>
+        <v>13.3347732545709</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>4.49679599572504</v>
+        <v>4.51962493955111</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-28.5731089310969</v>
+        <v>-28.6206003891654</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>4.28656569006619</v>
+        <v>3.52538636567938</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>41.5208625978282</v>
+        <v>41.6243350372656</v>
       </c>
     </row>
     <row r="192">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>2.76451730227873</v>
+        <v>2.76976842685987</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>5.29832917169642</v>
+        <v>5.29878592111118</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>6.28259497026947</v>
+        <v>6.24066201627031</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>13.3182095718386</v>
+        <v>13.3182096401992</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>4.50476535172988</v>
+        <v>4.52605083112547</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-28.7347420999411</v>
+        <v>-28.713158572658</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>4.11907825757194</v>
+        <v>3.42298817387907</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>42.6029442442407</v>
+        <v>42.7469185319459</v>
       </c>
     </row>
     <row r="201">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>2.22713119615441</v>
+        <v>2.2317514654346</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>5.69437112539759</v>
+        <v>5.69482034525926</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>7.74207536241478</v>
+        <v>7.6965617704144</v>
       </c>
     </row>
     <row r="205">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>4.54183189894686</v>
+        <v>4.56461327613764</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-25.500542225006</v>
+        <v>-25.4946271745942</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>4.00583896490775</v>
+        <v>3.35344425358571</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>42.6166851148644</v>
+        <v>42.7083003162864</v>
       </c>
     </row>
     <row r="210">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>6.35959069241354</v>
+        <v>6.359745217538</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>6.42375461611666</v>
+        <v>6.37833141511654</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>13.0682436653436</v>
+        <v>13.0682436807579</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>4.66127451223806</v>
+        <v>4.68833321980383</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-25.5455878575034</v>
+        <v>-25.6543578813806</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>3.94941547341813</v>
+        <v>3.2993849326425</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>43.2819525787481</v>
+        <v>43.2033559648792</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>4.25046717597358</v>
+        <v>4.25046470183327</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>1.95331497919542</v>
+        <v>1.94748555680641</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>7.06075468295715</v>
+        <v>7.06110779750105</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>5.48377156439598</v>
+        <v>5.42834074646176</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>13.3269773858493</v>
+        <v>13.3269773625328</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>4.84935823428705</v>
+        <v>4.87410543265398</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-25.5092307622016</v>
+        <v>-25.5215250371081</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>3.90082073550733</v>
+        <v>3.25724594073035</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>42.7812007512916</v>
+        <v>42.827787835732</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>4.25545377094321</v>
+        <v>4.25545382565708</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>2.10111662278682</v>
+        <v>2.10101229655285</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>6.85400940521043</v>
+        <v>6.85436799672123</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>5.29876331698971</v>
+        <v>5.2690978638518</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>13.8018030801785</v>
+        <v>13.8018030801764</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>4.94365050661125</v>
+        <v>4.97663351974855</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-25.5870676076273</v>
+        <v>-25.6275610459067</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>3.85863510765089</v>
+        <v>3.21775805328658</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>42.2466099872954</v>
+        <v>42.3426040233012</v>
       </c>
     </row>
     <row r="237">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>1.82199575079504</v>
+        <v>1.82199575117039</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>6.82376301493585</v>
+        <v>6.82434970284196</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>4.19870521299621</v>
+        <v>4.144489065996</v>
       </c>
     </row>
     <row r="241">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>4.68151597911491</v>
+        <v>4.72549955327809</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-24.9430555342139</v>
+        <v>-25.0171606030199</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>3.82608750416303</v>
+        <v>3.18445650096907</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>42.2494405435185</v>
+        <v>42.4846921091799</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>4.25804095565629</v>
+        <v>4.25804067059073</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>1.62056777130298</v>
+        <v>1.61893270711582</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>6.86577862017116</v>
+        <v>6.86629568299574</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>4.78651278806406</v>
+        <v>4.72761345197966</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>14.7928894095062</v>
+        <v>14.7928894095164</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>4.71610828122284</v>
+        <v>4.75267975093426</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-23.457065304074</v>
+        <v>-23.5100744010094</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>3.78374424066434</v>
+        <v>3.14628325097177</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>42.6702762996432</v>
+        <v>42.7474620194778</v>
       </c>
     </row>
     <row r="255">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>1.52307369685792</v>
+        <v>1.52195794388646</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>6.9123278418774</v>
+        <v>6.91279865144499</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>4.65201962608137</v>
+        <v>4.59216680208139</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>15.1155156570289</v>
+        <v>15.1155156467454</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>4.6419456133999</v>
+        <v>4.68643201423517</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-22.4253764928162</v>
+        <v>-22.4171338290977</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>3.7091305384309</v>
+        <v>3.09841534051766</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>42.858805917382</v>
+        <v>42.9567846467875</v>
       </c>
     </row>
     <row r="264">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>1.37790523297825</v>
+        <v>1.37346781463497</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>7.32197453035452</v>
+        <v>7.32238592218811</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>5.30300285308042</v>
+        <v>5.24168500308024</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>14.6442490836837</v>
+        <v>14.6442490529241</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>4.69037233253165</v>
+        <v>4.73086328999978</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-21.5944115493089</v>
+        <v>-21.6104463627362</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>3.65841629214355</v>
+        <v>3.06343670308381</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>42.8692574279828</v>
+        <v>42.8612515391918</v>
       </c>
     </row>
     <row r="273">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>1.23616518477486</v>
+        <v>1.23458670082791</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>6.49288005426488</v>
+        <v>6.493016787012</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>5.35651644462074</v>
+        <v>5.40609228131039</v>
       </c>
     </row>
     <row r="277">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>4.48016332402092</v>
+        <v>4.51716714835567</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-21.0605593312749</v>
+        <v>-20.9441100251851</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>3.60730767064119</v>
+        <v>3.02478087359061</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>42.3205527509992</v>
+        <v>42.7156146078172</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>4.54051821320986</v>
+        <v>4.54427287955271</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>1.14846953411967</v>
+        <v>1.17184163889055</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>6.29818996095752</v>
+        <v>6.37474362770847</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>5.39838535280978</v>
+        <v>5.52957086609071</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>13.8461700452147</v>
+        <v>13.846519625141</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>4.70860615101051</v>
+        <v>4.70953465321509</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-20.5055640796025</v>
+        <v>-20.6690488589038</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>3.54802779227567</v>
+        <v>2.98026585792654</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>41.7126947737278</v>
+        <v>41.5214302373986</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>4.51693339630285</v>
+        <v>4.52249313318352</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>1.29149747703035</v>
+        <v>1.32057043358948</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>6.09886044811236</v>
+        <v>6.26458837659061</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>3.12438834912879</v>
+        <v>3.28252564501248</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>13.684428618949</v>
+        <v>13.6858248274672</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>4.46936683468705</v>
+        <v>4.44412374229653</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-19.2387943221301</v>
+        <v>-19.3727179974362</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>3.49719325727942</v>
+        <v>2.94156164869313</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>40.6129988445432</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>4.45560081717681</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.17382833755656</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>6.12627000661834</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2.93970328325902</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>14.1555630783723</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>4.03172696224907</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-20.1971215830737</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2.92061334072018</v>
       </c>
     </row>
   </sheetData>
